--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Cd44.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N2">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O2">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P2">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q2">
-        <v>207.1702875928875</v>
+        <v>1439.757649253741</v>
       </c>
       <c r="R2">
-        <v>1864.532588335988</v>
+        <v>12957.81884328367</v>
       </c>
       <c r="S2">
-        <v>0.0002008652434486767</v>
+        <v>0.0006392628466786643</v>
       </c>
       <c r="T2">
-        <v>0.0002008652434486767</v>
+        <v>0.0006392628466786641</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q3">
-        <v>3317.634355926966</v>
+        <v>5514.98557602661</v>
       </c>
       <c r="R3">
-        <v>29858.7092033427</v>
+        <v>49634.87018423949</v>
       </c>
       <c r="S3">
-        <v>0.003216665093821311</v>
+        <v>0.00244869362600706</v>
       </c>
       <c r="T3">
-        <v>0.003216665093821311</v>
+        <v>0.002448693626007059</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N4">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q4">
-        <v>4507.89996151453</v>
+        <v>15033.15994579794</v>
       </c>
       <c r="R4">
-        <v>40571.09965363077</v>
+        <v>135298.4395121815</v>
       </c>
       <c r="S4">
-        <v>0.004370706020311489</v>
+        <v>0.006674832133385518</v>
       </c>
       <c r="T4">
-        <v>0.004370706020311489</v>
+        <v>0.006674832133385517</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N5">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q5">
-        <v>1099.953896796058</v>
+        <v>3743.523181897071</v>
       </c>
       <c r="R5">
-        <v>9899.585071164516</v>
+        <v>33691.70863707364</v>
       </c>
       <c r="S5">
-        <v>0.001066477774537037</v>
+        <v>0.001662151464940983</v>
       </c>
       <c r="T5">
-        <v>0.001066477774537037</v>
+        <v>0.001662151464940983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H6">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N6">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q6">
-        <v>13192.75044451748</v>
+        <v>24710.44004191821</v>
       </c>
       <c r="R6">
-        <v>118734.7540006573</v>
+        <v>222393.9603772639</v>
       </c>
       <c r="S6">
-        <v>0.01279124077388508</v>
+        <v>0.01097161473812398</v>
       </c>
       <c r="T6">
-        <v>0.01279124077388508</v>
+        <v>0.01097161473812398</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H7">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N7">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q7">
-        <v>2932.302763872694</v>
+        <v>7481.329109967588</v>
       </c>
       <c r="R7">
-        <v>26390.72487485424</v>
+        <v>67331.96198970829</v>
       </c>
       <c r="S7">
-        <v>0.002843060727356625</v>
+        <v>0.003321764427684572</v>
       </c>
       <c r="T7">
-        <v>0.002843060727356625</v>
+        <v>0.003321764427684571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N8">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O8">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P8">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q8">
-        <v>5544.311318743301</v>
+        <v>23178.94541871648</v>
       </c>
       <c r="R8">
-        <v>49898.80186868971</v>
+        <v>208610.5087684484</v>
       </c>
       <c r="S8">
-        <v>0.0053755751161725</v>
+        <v>0.01029162000914411</v>
       </c>
       <c r="T8">
-        <v>0.0053755751161725</v>
+        <v>0.0102916200091441</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q9">
         <v>88786.85223029547</v>
@@ -1013,10 +1013,10 @@
         <v>799081.6700726592</v>
       </c>
       <c r="S9">
-        <v>0.08608470305030484</v>
+        <v>0.03942200684524622</v>
       </c>
       <c r="T9">
-        <v>0.08608470305030484</v>
+        <v>0.03942200684524622</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N10">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q10">
-        <v>120640.8557461768</v>
+        <v>242021.8389081637</v>
       </c>
       <c r="R10">
-        <v>1085767.701715591</v>
+        <v>2178196.550173474</v>
       </c>
       <c r="S10">
-        <v>0.1169692581927198</v>
+        <v>0.1074594531788252</v>
       </c>
       <c r="T10">
-        <v>0.1169692581927198</v>
+        <v>0.1074594531788252</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N11">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q11">
-        <v>29437.07281078057</v>
+        <v>60267.7259967102</v>
       </c>
       <c r="R11">
-        <v>264933.6552970252</v>
+        <v>542409.5339703918</v>
       </c>
       <c r="S11">
-        <v>0.02854118158185565</v>
+        <v>0.02675930779286088</v>
       </c>
       <c r="T11">
-        <v>0.02854118158185565</v>
+        <v>0.02675930779286088</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N12">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q12">
-        <v>353065.6662437589</v>
+        <v>397818.3003931001</v>
       </c>
       <c r="R12">
-        <v>3177590.99619383</v>
+        <v>3580364.703537901</v>
       </c>
       <c r="S12">
-        <v>0.3423204255177014</v>
+        <v>0.1766342129190812</v>
       </c>
       <c r="T12">
-        <v>0.3423204255177014</v>
+        <v>0.1766342129190812</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N13">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q13">
-        <v>78474.5708113782</v>
+        <v>120443.4087843016</v>
       </c>
       <c r="R13">
-        <v>706271.1373024038</v>
+        <v>1083990.679058715</v>
       </c>
       <c r="S13">
-        <v>0.07608626677940208</v>
+        <v>0.05347774773278192</v>
       </c>
       <c r="T13">
-        <v>0.07608626677940208</v>
+        <v>0.05347774773278192</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H14">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N14">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O14">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P14">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q14">
-        <v>1193.4986012275</v>
+        <v>18453.16600568403</v>
       </c>
       <c r="R14">
-        <v>10741.4874110475</v>
+        <v>166078.4940511563</v>
       </c>
       <c r="S14">
-        <v>0.001157175528772337</v>
+        <v>0.008193339647920525</v>
       </c>
       <c r="T14">
-        <v>0.001157175528772337</v>
+        <v>0.008193339647920522</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H15">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q15">
-        <v>19112.74058258859</v>
+        <v>70684.77420913245</v>
       </c>
       <c r="R15">
-        <v>172014.6652432973</v>
+        <v>636162.967882192</v>
       </c>
       <c r="S15">
-        <v>0.0185310612573811</v>
+        <v>0.03138455281080787</v>
       </c>
       <c r="T15">
-        <v>0.0185310612573811</v>
+        <v>0.03138455281080787</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H16">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N16">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q16">
-        <v>25969.80658304498</v>
+        <v>192677.8414503281</v>
       </c>
       <c r="R16">
-        <v>233728.2592474048</v>
+        <v>1734100.573052953</v>
       </c>
       <c r="S16">
-        <v>0.02517943852966617</v>
+        <v>0.08555036014657035</v>
       </c>
       <c r="T16">
-        <v>0.02517943852966617</v>
+        <v>0.08555036014657033</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H17">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N17">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q17">
-        <v>6336.784355006622</v>
+        <v>47980.19635976846</v>
       </c>
       <c r="R17">
-        <v>57031.05919505959</v>
+        <v>431821.7672379161</v>
       </c>
       <c r="S17">
-        <v>0.006143929937730458</v>
+        <v>0.02130355544562992</v>
       </c>
       <c r="T17">
-        <v>0.006143929937730457</v>
+        <v>0.02130355544562991</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H18">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N18">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q18">
-        <v>76002.83508230094</v>
+        <v>316710.1438241125</v>
       </c>
       <c r="R18">
-        <v>684025.5157407084</v>
+        <v>2850391.294417013</v>
       </c>
       <c r="S18">
-        <v>0.0736897561372122</v>
+        <v>0.14062160268289</v>
       </c>
       <c r="T18">
-        <v>0.0736897561372122</v>
+        <v>0.14062160268289</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H19">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N19">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q19">
-        <v>16892.86281213687</v>
+        <v>95887.11550235198</v>
       </c>
       <c r="R19">
-        <v>152035.7653092319</v>
+        <v>862984.039521168</v>
       </c>
       <c r="S19">
-        <v>0.01637874349999919</v>
+        <v>0.04257457527495066</v>
       </c>
       <c r="T19">
-        <v>0.01637874349999919</v>
+        <v>0.04257457527495066</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H20">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I20">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J20">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N20">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O20">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P20">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q20">
-        <v>588.9406669726339</v>
+        <v>721.605984615008</v>
       </c>
       <c r="R20">
-        <v>5300.466002753706</v>
+        <v>6494.453861535072</v>
       </c>
       <c r="S20">
-        <v>0.0005710167795912518</v>
+        <v>0.0003203982949105708</v>
       </c>
       <c r="T20">
-        <v>0.0005710167795912519</v>
+        <v>0.0003203982949105708</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H21">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I21">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J21">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q21">
-        <v>9431.322478977107</v>
+        <v>2764.108667030864</v>
       </c>
       <c r="R21">
-        <v>84881.90231079396</v>
+        <v>24876.97800327777</v>
       </c>
       <c r="S21">
-        <v>0.00914428853574537</v>
+        <v>0.001227284311308358</v>
       </c>
       <c r="T21">
-        <v>0.009144288535745372</v>
+        <v>0.001227284311308358</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H22">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I22">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J22">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N22">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q22">
-        <v>12814.99215368867</v>
+        <v>7534.614030482976</v>
       </c>
       <c r="R22">
-        <v>115334.929383198</v>
+        <v>67811.52627434678</v>
       </c>
       <c r="S22">
-        <v>0.01242497922193321</v>
+        <v>0.003345423319159376</v>
       </c>
       <c r="T22">
-        <v>0.01242497922193321</v>
+        <v>0.003345423319159376</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H23">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I23">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J23">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N23">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q23">
-        <v>3126.932868342738</v>
+        <v>1876.252390811824</v>
       </c>
       <c r="R23">
-        <v>28142.39581508464</v>
+        <v>16886.27151730642</v>
       </c>
       <c r="S23">
-        <v>0.003031767437044849</v>
+        <v>0.0008330696802060414</v>
       </c>
       <c r="T23">
-        <v>0.003031767437044849</v>
+        <v>0.0008330696802060414</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H24">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I24">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J24">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N24">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q24">
-        <v>37504.15822787314</v>
+        <v>12384.8631232908</v>
       </c>
       <c r="R24">
-        <v>337537.4240508582</v>
+        <v>111463.7681096172</v>
       </c>
       <c r="S24">
-        <v>0.03636275240194267</v>
+        <v>0.005498969121660262</v>
       </c>
       <c r="T24">
-        <v>0.03636275240194268</v>
+        <v>0.005498969121660262</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H25">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I25">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J25">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N25">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q25">
-        <v>8335.907458479442</v>
+        <v>3749.639296186608</v>
       </c>
       <c r="R25">
-        <v>75023.16712631498</v>
+        <v>33746.75366567947</v>
       </c>
       <c r="S25">
-        <v>0.008082211500828156</v>
+        <v>0.001664867064079052</v>
       </c>
       <c r="T25">
-        <v>0.008082211500828157</v>
+        <v>0.001664867064079052</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H26">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N26">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O26">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P26">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q26">
-        <v>483.2391794429765</v>
+        <v>1950.343670427939</v>
       </c>
       <c r="R26">
-        <v>4349.152614986789</v>
+        <v>17553.09303385145</v>
       </c>
       <c r="S26">
-        <v>0.0004685322231800804</v>
+        <v>0.0008659667461435014</v>
       </c>
       <c r="T26">
-        <v>0.0004685322231800804</v>
+        <v>0.0008659667461435013</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H27">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q27">
-        <v>7738.614076746667</v>
+        <v>7470.78316706983</v>
       </c>
       <c r="R27">
-        <v>69647.52669072</v>
+        <v>67237.04850362847</v>
       </c>
       <c r="S27">
-        <v>0.00750309621394975</v>
+        <v>0.00331708195249076</v>
       </c>
       <c r="T27">
-        <v>0.00750309621394975</v>
+        <v>0.00331708195249076</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H28">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N28">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q28">
-        <v>10514.99181530361</v>
+        <v>20364.41922153701</v>
       </c>
       <c r="R28">
-        <v>94634.92633773247</v>
+        <v>183279.7729938331</v>
       </c>
       <c r="S28">
-        <v>0.01019497735598216</v>
+        <v>0.009041949948496606</v>
       </c>
       <c r="T28">
-        <v>0.01019497735598216</v>
+        <v>0.009041949948496606</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H29">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N29">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q29">
-        <v>2565.719363953231</v>
+        <v>5071.101200050969</v>
       </c>
       <c r="R29">
-        <v>23091.47427557908</v>
+        <v>45639.91080045873</v>
       </c>
       <c r="S29">
-        <v>0.002487633968410548</v>
+        <v>0.002251605741160989</v>
       </c>
       <c r="T29">
-        <v>0.002487633968410548</v>
+        <v>0.002251605741160989</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H30">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N30">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q30">
-        <v>30773.01273980305</v>
+        <v>33473.58519277479</v>
       </c>
       <c r="R30">
-        <v>276957.1146582275</v>
+        <v>301262.2667349731</v>
       </c>
       <c r="S30">
-        <v>0.02983646336281853</v>
+        <v>0.01486251479196188</v>
       </c>
       <c r="T30">
-        <v>0.02983646336281853</v>
+        <v>0.01486251479196188</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H31">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N31">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q31">
-        <v>6839.80119908305</v>
+        <v>10134.45761762509</v>
       </c>
       <c r="R31">
-        <v>61558.21079174745</v>
+        <v>91210.11855862582</v>
       </c>
       <c r="S31">
-        <v>0.006631637909844435</v>
+        <v>0.004499772742687136</v>
       </c>
       <c r="T31">
-        <v>0.006631637909844435</v>
+        <v>0.004499772742687136</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H32">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N32">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O32">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P32">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q32">
-        <v>442.5628966920782</v>
+        <v>10237.9752600969</v>
       </c>
       <c r="R32">
-        <v>3983.066070228704</v>
+        <v>92141.77734087211</v>
       </c>
       <c r="S32">
-        <v>0.0004290938870543796</v>
+        <v>0.00454573532732233</v>
       </c>
       <c r="T32">
-        <v>0.0004290938870543796</v>
+        <v>0.004545735327322329</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H33">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>502.283203</v>
       </c>
       <c r="O33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q33">
-        <v>7087.222244965415</v>
+        <v>39216.5208612834</v>
       </c>
       <c r="R33">
-        <v>63785.00020468874</v>
+        <v>352948.6877515506</v>
       </c>
       <c r="S33">
-        <v>0.006871528915417349</v>
+        <v>0.01741241991359547</v>
       </c>
       <c r="T33">
-        <v>0.006871528915417349</v>
+        <v>0.01741241991359547</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H34">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N34">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q34">
-        <v>9629.900542911977</v>
+        <v>106899.3241230103</v>
       </c>
       <c r="R34">
-        <v>86669.10488620779</v>
+        <v>962093.9171070926</v>
       </c>
       <c r="S34">
-        <v>0.00933682305225011</v>
+        <v>0.04746407583409697</v>
       </c>
       <c r="T34">
-        <v>0.00933682305225011</v>
+        <v>0.04746407583409697</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H35">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N35">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q35">
-        <v>2349.751928473525</v>
+        <v>26619.82573367589</v>
       </c>
       <c r="R35">
-        <v>21147.76735626173</v>
+        <v>239578.431603083</v>
       </c>
       <c r="S35">
-        <v>0.00227823931047647</v>
+        <v>0.01181939584444642</v>
       </c>
       <c r="T35">
-        <v>0.00227823931047647</v>
+        <v>0.01181939584444642</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H36">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N36">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q36">
-        <v>28182.71828407601</v>
+        <v>175713.5125806723</v>
       </c>
       <c r="R36">
-        <v>253644.4645566841</v>
+        <v>1581421.613226051</v>
       </c>
       <c r="S36">
-        <v>0.02732500222377809</v>
+        <v>0.07801807499369741</v>
       </c>
       <c r="T36">
-        <v>0.02732500222377809</v>
+        <v>0.07801807499369741</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H37">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N37">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q37">
-        <v>6264.066243456038</v>
+        <v>53198.99663682368</v>
       </c>
       <c r="R37">
-        <v>56376.59619110434</v>
+        <v>478790.9697314131</v>
       </c>
       <c r="S37">
-        <v>0.006073424937474631</v>
+        <v>0.02362074064904728</v>
       </c>
       <c r="T37">
-        <v>0.006073424937474631</v>
+        <v>0.02362074064904728</v>
       </c>
     </row>
   </sheetData>
